--- a/Tecnologia da Informação/Backlog PI.xlsx
+++ b/Tecnologia da Informação/Backlog PI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/paulo_bambino_sptech_school/Documents/Documentos/Pasta do projeto individual/Projeto-Individual/Tecnologia da Informação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{EFF65807-9942-45D8-A504-145D33266130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE005F26-C4D5-4E3E-8DFE-921C1BBAE8F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{21C7FD50-600E-4F6C-A5F1-EB3B115A413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6F66F0B-78E1-43E1-830C-191D6D61F33F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>1.Documentação</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Realizar o script no banco de dados da modelagem lógica</t>
   </si>
   <si>
-    <t>Integrar a API Web-Data-Viz para que os dados sejam cadastrados no banco de dados</t>
-  </si>
-  <si>
     <t>5.Integrar API</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>7.Dashboard</t>
   </si>
   <si>
-    <t>Fazer a dashboard de forma dinâmica com os dados cadastrados no banco de dados</t>
-  </si>
-  <si>
     <t>8.Página inicial do site</t>
   </si>
   <si>
@@ -122,40 +116,85 @@
     <t>10.Página de login do site</t>
   </si>
   <si>
-    <t>11.Página para formulário do usuário</t>
-  </si>
-  <si>
     <t>Fazer a página inicial do site institucional com o acesso das outras</t>
   </si>
   <si>
-    <t xml:space="preserve">Fazer a página de cadastro do site </t>
-  </si>
-  <si>
-    <t>Fazer página de login do site para o usuário acessar a dashboard</t>
-  </si>
-  <si>
-    <t>Realizar uma página de formulário para o usuário ter interação e cadastrar certas informações</t>
-  </si>
-  <si>
-    <t>8S</t>
-  </si>
-  <si>
     <t>12.Realizar a integração do banco na VM</t>
   </si>
   <si>
     <t>13.Relacionar o tema com algum objetivo da ONU</t>
   </si>
   <si>
-    <t>14.Utilizar vetores e operações matemáticas no projeto</t>
-  </si>
-  <si>
-    <t>Fazer uma relação do tema escolhido com um ou mais dos objetivo da ONU</t>
-  </si>
-  <si>
-    <t>Integrar o banco de dados no projeto individual na VM do projeto</t>
-  </si>
-  <si>
-    <t>Durante a realização do projeto, utilizar os conceitos aprendidos na aula de algoritmo</t>
+    <t xml:space="preserve">                                        REQUISITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                              DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PESO</t>
+  </si>
+  <si>
+    <t>PRIORIDADE</t>
+  </si>
+  <si>
+    <t>11.Realizar quiz e perguntas para ele</t>
+  </si>
+  <si>
+    <t>Fazer a página, css e implementar as perguntas do quiz</t>
+  </si>
+  <si>
+    <t>Integrar a API Web-Data-Viz para que os dados do usuário e do quis sejam cadastrados</t>
+  </si>
+  <si>
+    <t>Fazer a dashboard para que os dados do quiz sejam inseridos</t>
+  </si>
+  <si>
+    <t>Fazer a página de cadastro com os campos necessários do usuário</t>
+  </si>
+  <si>
+    <t>Fazer página de login do site para o usuário acessar o quis</t>
+  </si>
+  <si>
+    <t>14.Utilizar vetores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Explicar o motivo desse tema na minha vida, esclarecer sobre ele</t>
+  </si>
+  <si>
+    <t>IMPORTÂNCIA</t>
+  </si>
+  <si>
+    <t>PONTOS FIBONACCI</t>
+  </si>
+  <si>
+    <t>15.Descrever a importância que o tema teve na minha vida</t>
+  </si>
+  <si>
+    <t>16.Realizar um carrosel com as imagens dos robôs</t>
+  </si>
+  <si>
+    <t>17.Inseir todas as informações necessárias na página inicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Utilizar vetores e setInterval para fazer um carrosel dos robôs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Durante a realização do projeto, utilizar os conceitos aprendidos na aula de algoritmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fazer uma relação do tema escolhido com um ou mais dos objetivo da ONU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Integrar o banco de dados no projeto individual na VM do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Colocar na página inicial as informações sobre mim e sobre a história do filme</t>
+  </si>
+  <si>
+    <t>Fazer com que os campos do cadastro e login não possam estar em branco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. Realizar validações na páginas de login e cadastro </t>
   </si>
 </sst>
 </file>
@@ -185,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -236,11 +275,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -255,6 +305,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -595,21 +648,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D08E303-782B-4DD1-AE00-DE5A5F005A19}">
-  <dimension ref="D4:I23"/>
+  <dimension ref="D4:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
     <col min="5" max="5" width="94.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="7" spans="4:9" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
@@ -733,10 +807,10 @@
     </row>
     <row r="14" spans="4:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
@@ -753,10 +827,10 @@
     </row>
     <row r="15" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
@@ -764,8 +838,8 @@
       <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>33</v>
+      <c r="H15" s="1">
+        <v>8</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -773,10 +847,10 @@
     </row>
     <row r="16" spans="4:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
@@ -793,10 +867,10 @@
     </row>
     <row r="17" spans="4:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -813,10 +887,10 @@
     </row>
     <row r="18" spans="4:9" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>1</v>
@@ -833,10 +907,10 @@
     </row>
     <row r="19" spans="4:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1</v>
@@ -853,10 +927,10 @@
     </row>
     <row r="20" spans="4:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1</v>
@@ -873,10 +947,10 @@
     </row>
     <row r="21" spans="4:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>6</v>
@@ -893,10 +967,10 @@
     </row>
     <row r="22" spans="4:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>6</v>
@@ -913,10 +987,10 @@
     </row>
     <row r="23" spans="4:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>1</v>
@@ -930,6 +1004,125 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="24" spans="4:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>13</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>13</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
